--- a/techniqo/data_new_ticker/ABCAPITAL.xlsx
+++ b/techniqo/data_new_ticker/ABCAPITAL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G752"/>
+  <dimension ref="A1:G754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26706,6 +26706,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C753" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="D753" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="E753" t="n">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1678372</v>
+      </c>
+      <c r="G753" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C754" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D754" t="n">
+        <v>71</v>
+      </c>
+      <c r="E754" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="F754" t="n">
+        <v>4800989</v>
+      </c>
+      <c r="G754" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ABCAPITAL.xlsx
+++ b/techniqo/data_new_ticker/ABCAPITAL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G754"/>
+  <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26756,6 +26756,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>72</v>
+      </c>
+      <c r="C755" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="D755" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="E755" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1842228</v>
+      </c>
+      <c r="G755" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>71</v>
+      </c>
+      <c r="C756" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D756" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="E756" t="n">
+        <v>69.84999999999999</v>
+      </c>
+      <c r="F756" t="n">
+        <v>2626204</v>
+      </c>
+      <c r="G756" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
